--- a/csv_data_ranked/before/public-transport.xlsx
+++ b/csv_data_ranked/before/public-transport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omera\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDCAC47-DFB3-4290-A8CD-2134726CA330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -180,14 +174,14 @@
     <t>Louisiana</t>
   </si>
   <si>
-    <t>AQI-US</t>
+    <t>Transport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +384,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -424,7 +418,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -459,10 +452,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,16 +627,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,7 +647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -666,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -677,7 +669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -688,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="20.399999999999999">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -699,7 +691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -710,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -721,7 +713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="20.399999999999999">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -732,7 +724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -743,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -754,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -765,7 +757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -776,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -787,7 +779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="20.399999999999999">
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -798,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -809,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -820,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -831,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
@@ -842,7 +834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
@@ -853,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
@@ -864,7 +856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -875,7 +867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="20.399999999999999">
       <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
@@ -886,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
@@ -897,7 +889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
@@ -908,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
@@ -919,7 +911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
@@ -930,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="20.399999999999999">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
@@ -941,7 +933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
@@ -952,7 +944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
@@ -963,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="20.399999999999999">
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
@@ -974,7 +966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
@@ -985,7 +977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
@@ -996,7 +988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4">
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
@@ -1007,7 +999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="20.399999999999999">
       <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
@@ -1018,7 +1010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="20.399999999999999">
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
@@ -1029,7 +1021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
@@ -1040,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
@@ -1051,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4">
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1062,7 +1054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4">
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4">
       <c r="B40" s="5" t="s">
         <v>40</v>
       </c>
@@ -1084,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4">
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4">
       <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1106,7 +1098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4">
       <c r="B43" s="6" t="s">
         <v>43</v>
       </c>
@@ -1117,7 +1109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4">
       <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
@@ -1128,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4">
       <c r="B45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1139,7 +1131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4">
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
@@ -1150,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4">
       <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
@@ -1161,7 +1153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="20.399999999999999">
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
@@ -1172,7 +1164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4">
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
@@ -1183,7 +1175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4">
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
@@ -1194,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" ht="15" thickBot="1">
       <c r="B51" s="7" t="s">
         <v>51</v>
       </c>
@@ -1205,7 +1197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4">
       <c r="B52" s="5"/>
     </row>
   </sheetData>
@@ -1215,24 +1207,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
